--- a/需要做的地图.xlsx
+++ b/需要做的地图.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="客户分布、高单价客户分布" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +35,90 @@
   </si>
   <si>
     <t>产品布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分布、高单价客户分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分布.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '北京',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '天津',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '上海',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '重庆',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '河北',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '安徽',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '新疆',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '浙江',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '江西',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '山西',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '内蒙古',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '吉林',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '福建',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '广东',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '西藏',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '四川',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '宁夏',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '香港',value: randomData() },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {name: '澳门',value: randomData() }</t>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高单价订单数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -40,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +139,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,14 +167,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -384,11 +481,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -411,11 +512,23 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -423,8 +536,153 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/需要做的地图.xlsx
+++ b/需要做的地图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="3090" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
